--- a/idea/database.xlsx
+++ b/idea/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\git\termproject\idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE004D0-A03A-407D-9A3B-2B86C1B44B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD070DD1-D221-49ED-AB44-3E615390D0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="915" windowWidth="14160" windowHeight="10875" xr2:uid="{ACED2CEB-57DE-4D66-B36B-796627E77E3B}"/>
+    <workbookView xWindow="12540" yWindow="915" windowWidth="2820" windowHeight="10605" xr2:uid="{ACED2CEB-57DE-4D66-B36B-796627E77E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -543,7 +539,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,19 +551,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -580,27 +576,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -609,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -618,13 +614,13 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -633,10 +629,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -644,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -653,25 +649,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -680,29 +670,29 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
         <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -710,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -721,31 +711,31 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
         <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -753,26 +743,26 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/idea/database.xlsx
+++ b/idea/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\git\termproject\idea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD070DD1-D221-49ED-AB44-3E615390D0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A716BA86-0D88-43DF-9936-16FC5634D0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="915" windowWidth="2820" windowHeight="10605" xr2:uid="{ACED2CEB-57DE-4D66-B36B-796627E77E3B}"/>
+    <workbookView xWindow="2280" yWindow="2730" windowWidth="14040" windowHeight="12285" xr2:uid="{ACED2CEB-57DE-4D66-B36B-796627E77E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Customer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Booking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,30 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes or no (스위치 느낌) 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Food</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +109,30 @@
   </si>
   <si>
     <t>revenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D7EA29-1112-4104-90B1-BF6D5337A01F}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -549,220 +537,175 @@
     <col min="5" max="5" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
